--- a/examples/catl_2025q3_model/财务建模报告.xlsx
+++ b/examples/catl_2025q3_model/财务建模报告.xlsx
@@ -10,10 +10,11 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="三表-base_case" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="三表-bull_case" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="三表-bear_case" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DCF估值" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="场景对比" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="敏感性分析" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="高级功能" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="三表-公式模式" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DCF估值" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="场景对比" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="敏感性分析" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="高级功能" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -22,8 +23,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="4">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -42,8 +45,12 @@
     <font>
       <b val="1"/>
     </font>
+    <font>
+      <i val="1"/>
+      <color rgb="00808080"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -54,6 +61,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00DAEEF3"/>
         <bgColor rgb="00DAEEF3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFF2CC"/>
+        <bgColor rgb="00FFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -75,7 +88,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -94,6 +107,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1818,6 +1838,399 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="18" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>驱动假设 (可修改)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>参数</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>值</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>说明</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>收入增长率</t>
+        </is>
+      </c>
+      <c r="B3" s="9" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="C3" s="10" t="inlineStr">
+        <is>
+          <t>← 可修改</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="inlineStr">
+        <is>
+          <t>毛利率</t>
+        </is>
+      </c>
+      <c r="B4" s="9" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="C4" s="10" t="inlineStr">
+        <is>
+          <t>← 可修改</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="inlineStr">
+        <is>
+          <t>费用率</t>
+        </is>
+      </c>
+      <c r="B5" s="9" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="C5" s="10" t="inlineStr">
+        <is>
+          <t>← 可修改</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="inlineStr">
+        <is>
+          <t>税率</t>
+        </is>
+      </c>
+      <c r="B6" s="9" t="n">
+        <v>0.1386</v>
+      </c>
+      <c r="C6" s="10" t="inlineStr">
+        <is>
+          <t>← 可修改</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="inlineStr">
+        <is>
+          <t>利率</t>
+        </is>
+      </c>
+      <c r="B7" s="11" t="n">
+        <v>0.0233</v>
+      </c>
+      <c r="C7" s="10" t="inlineStr">
+        <is>
+          <t>← 可修改</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="8" t="inlineStr">
+        <is>
+          <t>应收周转天数</t>
+        </is>
+      </c>
+      <c r="B8" s="12" t="n">
+        <v>64</v>
+      </c>
+      <c r="C8" s="10" t="inlineStr">
+        <is>
+          <t>← 可修改</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="8" t="inlineStr">
+        <is>
+          <t>应付周转天数</t>
+        </is>
+      </c>
+      <c r="B9" s="12" t="n">
+        <v>120</v>
+      </c>
+      <c r="C9" s="10" t="inlineStr">
+        <is>
+          <t>← 可修改</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="8" t="inlineStr">
+        <is>
+          <t>存货周转天数</t>
+        </is>
+      </c>
+      <c r="B10" s="12" t="n">
+        <v>102</v>
+      </c>
+      <c r="C10" s="10" t="inlineStr">
+        <is>
+          <t>← 可修改</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>基础数据</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="8" t="inlineStr">
+        <is>
+          <t>上期收入</t>
+        </is>
+      </c>
+      <c r="B13" s="13" t="n">
+        <v>28307198.7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="8" t="inlineStr">
+        <is>
+          <t>期初负债</t>
+        </is>
+      </c>
+      <c r="B14" s="13" t="n">
+        <v>9375638.800000001</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>利润表</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>科目</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>金额(万元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="8" t="inlineStr">
+        <is>
+          <t>营业收入</t>
+        </is>
+      </c>
+      <c r="B18" s="8">
+        <f>B13*(1+$B$3)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="8" t="inlineStr">
+        <is>
+          <t>营业成本</t>
+        </is>
+      </c>
+      <c r="B19" s="8">
+        <f>B18*(1-$B$4)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="14" t="inlineStr">
+        <is>
+          <t>毛利</t>
+        </is>
+      </c>
+      <c r="B20" s="14">
+        <f>B18-B19</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="8" t="inlineStr">
+        <is>
+          <t>营业费用</t>
+        </is>
+      </c>
+      <c r="B21" s="8">
+        <f>B18*$B$5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="14" t="inlineStr">
+        <is>
+          <t>营业利润</t>
+        </is>
+      </c>
+      <c r="B22" s="14">
+        <f>B20-B21</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="8" t="inlineStr">
+        <is>
+          <t>利息费用</t>
+        </is>
+      </c>
+      <c r="B23" s="8">
+        <f>B14*$B$7</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="8" t="inlineStr">
+        <is>
+          <t>税前利润</t>
+        </is>
+      </c>
+      <c r="B24" s="8">
+        <f>B22-B23</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="8" t="inlineStr">
+        <is>
+          <t>所得税</t>
+        </is>
+      </c>
+      <c r="B25" s="8">
+        <f>MAX(B24,0)*$B$6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="14" t="inlineStr">
+        <is>
+          <t>净利润</t>
+        </is>
+      </c>
+      <c r="B26" s="14">
+        <f>B24-B25</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>营运资本</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>科目</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>金额(万元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="8" t="inlineStr">
+        <is>
+          <t>应收账款</t>
+        </is>
+      </c>
+      <c r="B30" s="8">
+        <f>B18/365*$B$8</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="8" t="inlineStr">
+        <is>
+          <t>应付账款</t>
+        </is>
+      </c>
+      <c r="B31" s="8">
+        <f>B19/365*$B$9</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="8" t="inlineStr">
+        <is>
+          <t>存货</t>
+        </is>
+      </c>
+      <c r="B32" s="8">
+        <f>B19/365*$B$10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>使用说明</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>1. 修改黄色单元格中的参数值</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2. 所有公式会自动重新计算</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>3. 点击单元格可在公式栏查看公式</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2209,7 +2622,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2405,7 +2818,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2534,7 +2947,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
